--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vcan-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vcan-Cd44.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.204747333333333</v>
+        <v>3.262296333333333</v>
       </c>
       <c r="H2">
-        <v>9.614241999999999</v>
+        <v>9.786889</v>
       </c>
       <c r="I2">
-        <v>0.01973032100547388</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="J2">
-        <v>0.01973032100547387</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N2">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O2">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P2">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q2">
-        <v>101.9988180068978</v>
+        <v>53.09538761793078</v>
       </c>
       <c r="R2">
-        <v>917.9893620620801</v>
+        <v>477.858488561377</v>
       </c>
       <c r="S2">
-        <v>0.002256967064623552</v>
+        <v>0.001269913075490123</v>
       </c>
       <c r="T2">
-        <v>0.002256967064623552</v>
+        <v>0.001269913075490123</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.204747333333333</v>
+        <v>3.262296333333333</v>
       </c>
       <c r="H3">
-        <v>9.614241999999999</v>
+        <v>9.786889</v>
       </c>
       <c r="I3">
-        <v>0.01973032100547388</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="J3">
-        <v>0.01973032100547387</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>256.389535</v>
       </c>
       <c r="O3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q3">
-        <v>273.8878928619411</v>
+        <v>278.8062133118461</v>
       </c>
       <c r="R3">
-        <v>2464.99103575747</v>
+        <v>2509.255919806615</v>
       </c>
       <c r="S3">
-        <v>0.006060422715356777</v>
+        <v>0.006668369357436105</v>
       </c>
       <c r="T3">
-        <v>0.006060422715356776</v>
+        <v>0.006668369357436105</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.204747333333333</v>
+        <v>3.262296333333333</v>
       </c>
       <c r="H4">
-        <v>9.614241999999999</v>
+        <v>9.786889</v>
       </c>
       <c r="I4">
-        <v>0.01973032100547388</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="J4">
-        <v>0.01973032100547387</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N4">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q4">
-        <v>124.0097020986658</v>
+        <v>139.0179017731918</v>
       </c>
       <c r="R4">
-        <v>1116.087318887992</v>
+        <v>1251.161115958726</v>
       </c>
       <c r="S4">
-        <v>0.002744010360115538</v>
+        <v>0.003324971510884281</v>
       </c>
       <c r="T4">
-        <v>0.002744010360115537</v>
+        <v>0.003324971510884281</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.204747333333333</v>
+        <v>3.262296333333333</v>
       </c>
       <c r="H5">
-        <v>9.614241999999999</v>
+        <v>9.786889</v>
       </c>
       <c r="I5">
-        <v>0.01973032100547388</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="J5">
-        <v>0.01973032100547387</v>
+        <v>0.01915820289899999</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N5">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q5">
-        <v>391.7734093347849</v>
+        <v>330.0898172402693</v>
       </c>
       <c r="R5">
-        <v>3525.960684013064</v>
+        <v>2970.808355162424</v>
       </c>
       <c r="S5">
-        <v>0.008668920865378011</v>
+        <v>0.007894948955189482</v>
       </c>
       <c r="T5">
-        <v>0.008668920865378011</v>
+        <v>0.007894948955189482</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>435.6423490000001</v>
       </c>
       <c r="I6">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="J6">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N6">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O6">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P6">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q6">
-        <v>4621.789702375752</v>
+        <v>2363.427171079684</v>
       </c>
       <c r="R6">
-        <v>41596.10732138177</v>
+        <v>21270.84453971716</v>
       </c>
       <c r="S6">
-        <v>0.1022681178243942</v>
+        <v>0.05652745374268899</v>
       </c>
       <c r="T6">
-        <v>0.1022681178243942</v>
+        <v>0.05652745374268899</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>435.6423490000001</v>
       </c>
       <c r="I7">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="J7">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>256.389535</v>
       </c>
       <c r="O7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q7">
         <v>12410.45992071308</v>
@@ -883,10 +883,10 @@
         <v>111694.1392864177</v>
       </c>
       <c r="S7">
-        <v>0.2746110184922519</v>
+        <v>0.2968281433326858</v>
       </c>
       <c r="T7">
-        <v>0.2746110184922519</v>
+        <v>0.2968281433326858</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>435.6423490000001</v>
       </c>
       <c r="I8">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="J8">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N8">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q8">
-        <v>5619.151038745747</v>
+        <v>6188.083392130485</v>
       </c>
       <c r="R8">
-        <v>50572.35934871173</v>
+        <v>55692.75052917437</v>
       </c>
       <c r="S8">
-        <v>0.1243371156000721</v>
+        <v>0.1480039672831384</v>
       </c>
       <c r="T8">
-        <v>0.1243371156000721</v>
+        <v>0.1480039672831384</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>435.6423490000001</v>
       </c>
       <c r="I9">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="J9">
-        <v>0.8940240311559333</v>
+        <v>0.8527862647199704</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N9">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q9">
-        <v>17752.11070392697</v>
+        <v>14693.23943119531</v>
       </c>
       <c r="R9">
-        <v>159768.9963353427</v>
+        <v>132239.1548807578</v>
       </c>
       <c r="S9">
-        <v>0.3928077792392151</v>
+        <v>0.3514267003614573</v>
       </c>
       <c r="T9">
-        <v>0.3928077792392152</v>
+        <v>0.3514267003614573</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.203389</v>
+        <v>21.305189</v>
       </c>
       <c r="H10">
-        <v>39.610167</v>
+        <v>63.915567</v>
       </c>
       <c r="I10">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="J10">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N10">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O10">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P10">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q10">
-        <v>420.2297191037868</v>
+        <v>346.7518436844256</v>
       </c>
       <c r="R10">
-        <v>3782.067471934081</v>
+        <v>3120.76659315983</v>
       </c>
       <c r="S10">
-        <v>0.009298584573098814</v>
+        <v>0.008293464272524705</v>
       </c>
       <c r="T10">
-        <v>0.009298584573098815</v>
+        <v>0.008293464272524705</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.203389</v>
+        <v>21.305189</v>
       </c>
       <c r="H11">
-        <v>39.610167</v>
+        <v>63.915567</v>
       </c>
       <c r="I11">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="J11">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>256.389535</v>
       </c>
       <c r="O11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q11">
-        <v>1128.403588711372</v>
+        <v>1820.809166932372</v>
       </c>
       <c r="R11">
-        <v>10155.63229840235</v>
+        <v>16387.28250239135</v>
       </c>
       <c r="S11">
-        <v>0.02496862007903227</v>
+        <v>0.04354934529715768</v>
       </c>
       <c r="T11">
-        <v>0.02496862007903227</v>
+        <v>0.04354934529715768</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.203389</v>
+        <v>21.305189</v>
       </c>
       <c r="H12">
-        <v>39.610167</v>
+        <v>63.915567</v>
       </c>
       <c r="I12">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="J12">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N12">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q12">
-        <v>510.9133938742547</v>
+        <v>907.8889129103085</v>
       </c>
       <c r="R12">
-        <v>4598.220544868292</v>
+        <v>8171.000216192777</v>
       </c>
       <c r="S12">
-        <v>0.01130517711265294</v>
+        <v>0.02171450390180327</v>
       </c>
       <c r="T12">
-        <v>0.01130517711265294</v>
+        <v>0.02171450390180327</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.203389</v>
+        <v>21.305189</v>
       </c>
       <c r="H13">
-        <v>39.610167</v>
+        <v>63.915567</v>
       </c>
       <c r="I13">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="J13">
-        <v>0.08128787583986634</v>
+        <v>0.1251171236325075</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N13">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q13">
-        <v>1614.08566269813</v>
+        <v>2155.728733598407</v>
       </c>
       <c r="R13">
-        <v>14526.77096428317</v>
+        <v>19401.55860238567</v>
       </c>
       <c r="S13">
-        <v>0.03571549407508232</v>
+        <v>0.05155981016102189</v>
       </c>
       <c r="T13">
-        <v>0.03571549407508232</v>
+        <v>0.05155981016102189</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8052786666666667</v>
+        <v>0.500358</v>
       </c>
       <c r="H14">
-        <v>2.415836</v>
+        <v>1.501074</v>
       </c>
       <c r="I14">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="J14">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N14">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O14">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P14">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q14">
-        <v>25.62993697251556</v>
+        <v>8.143558782897999</v>
       </c>
       <c r="R14">
-        <v>230.6694327526401</v>
+        <v>73.29202904608199</v>
       </c>
       <c r="S14">
-        <v>0.0005671234701115182</v>
+        <v>0.000194774202494609</v>
       </c>
       <c r="T14">
-        <v>0.0005671234701115183</v>
+        <v>0.000194774202494609</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8052786666666667</v>
+        <v>0.500358</v>
       </c>
       <c r="H15">
-        <v>2.415836</v>
+        <v>1.501074</v>
       </c>
       <c r="I15">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="J15">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>256.389535</v>
       </c>
       <c r="O15">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P15">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q15">
-        <v>68.82167429736224</v>
+        <v>42.76218498451</v>
       </c>
       <c r="R15">
-        <v>619.3950686762601</v>
+        <v>384.85966486059</v>
       </c>
       <c r="S15">
-        <v>0.001522843649138086</v>
+        <v>0.001022767895379629</v>
       </c>
       <c r="T15">
-        <v>0.001522843649138086</v>
+        <v>0.001022767895379629</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8052786666666667</v>
+        <v>0.500358</v>
       </c>
       <c r="H16">
-        <v>2.415836</v>
+        <v>1.501074</v>
       </c>
       <c r="I16">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="J16">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N16">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O16">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P16">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q16">
-        <v>31.16076157425956</v>
+        <v>21.322011303724</v>
       </c>
       <c r="R16">
-        <v>280.446854168336</v>
+        <v>191.898101733516</v>
       </c>
       <c r="S16">
-        <v>0.0006895061526785034</v>
+        <v>0.0005099708687540147</v>
       </c>
       <c r="T16">
-        <v>0.0006895061526785034</v>
+        <v>0.0005099708687540148</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8052786666666667</v>
+        <v>0.500358</v>
       </c>
       <c r="H17">
-        <v>2.415836</v>
+        <v>1.501074</v>
       </c>
       <c r="I17">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="J17">
-        <v>0.004957771998726472</v>
+        <v>0.002938408748521978</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N17">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O17">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P17">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q17">
-        <v>98.44357008214578</v>
+        <v>50.62785961137599</v>
       </c>
       <c r="R17">
-        <v>885.9921307393121</v>
+        <v>455.6507365023839</v>
       </c>
       <c r="S17">
-        <v>0.002178298726798364</v>
+        <v>0.001210895781893725</v>
       </c>
       <c r="T17">
-        <v>0.002178298726798364</v>
+        <v>0.001210895781893725</v>
       </c>
     </row>
   </sheetData>
